--- a/data/option_data/call/ABT.xlsx
+++ b/data/option_data/call/ABT.xlsx
@@ -552,19 +552,19 @@
         <v>68.40000000000001</v>
       </c>
       <c r="G2">
-        <v>70.5</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <v>55</v>
       </c>
       <c r="I2">
-        <v>75.5</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>1</v>
       </c>
       <c r="K2">
-        <v>0.4719901434326171</v>
+        <v>1E-05</v>
       </c>
       <c r="L2" t="b">
         <v>1</v>
@@ -590,19 +590,19 @@
         <v>64.65000000000001</v>
       </c>
       <c r="G3">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>60</v>
       </c>
       <c r="I3">
-        <v>70.5</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>10</v>
       </c>
       <c r="K3">
-        <v>0.4301204449462891</v>
+        <v>1E-05</v>
       </c>
       <c r="L3" t="b">
         <v>1</v>
@@ -701,19 +701,19 @@
         <v>75</v>
       </c>
       <c r="F6">
-        <v>35.7</v>
+        <v>53.87</v>
       </c>
       <c r="G6">
-        <v>45.7</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <v>75</v>
       </c>
       <c r="I6">
-        <v>48.15</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K6">
         <v>1E-05</v>
@@ -739,22 +739,22 @@
         <v>80</v>
       </c>
       <c r="F7">
-        <v>47.1</v>
+        <v>49.47</v>
       </c>
       <c r="G7">
-        <v>49.15</v>
+        <v>0</v>
       </c>
       <c r="H7">
         <v>80</v>
       </c>
       <c r="I7">
-        <v>50.8</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K7">
-        <v>0.3024972094726562</v>
+        <v>1E-05</v>
       </c>
       <c r="L7" t="b">
         <v>1</v>
@@ -789,7 +789,7 @@
         <v>45.5</v>
       </c>
       <c r="K8">
-        <v>0.2625806164550781</v>
+        <v>0.2848582257080078</v>
       </c>
       <c r="L8" t="b">
         <v>1</v>
@@ -815,19 +815,19 @@
         <v>40</v>
       </c>
       <c r="G9">
-        <v>40.75</v>
+        <v>0</v>
       </c>
       <c r="H9">
         <v>90</v>
       </c>
       <c r="I9">
-        <v>42.85</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>1</v>
       </c>
       <c r="K9">
-        <v>0.2981637567138671</v>
+        <v>1E-05</v>
       </c>
       <c r="L9" t="b">
         <v>1</v>
@@ -853,19 +853,19 @@
         <v>37.7</v>
       </c>
       <c r="G10">
-        <v>36.95</v>
+        <v>0</v>
       </c>
       <c r="H10">
         <v>95</v>
       </c>
       <c r="I10">
-        <v>38.55</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>4</v>
       </c>
       <c r="K10">
-        <v>0.2825999475097656</v>
+        <v>1E-05</v>
       </c>
       <c r="L10" t="b">
         <v>1</v>
@@ -903,7 +903,7 @@
         <v>1</v>
       </c>
       <c r="K11">
-        <v>0.2189409161376953</v>
+        <v>0.2348709326171875</v>
       </c>
       <c r="L11" t="b">
         <v>1</v>
@@ -929,19 +929,19 @@
         <v>32.77</v>
       </c>
       <c r="G12">
-        <v>33.2</v>
+        <v>0</v>
       </c>
       <c r="H12">
         <v>100</v>
       </c>
       <c r="I12">
-        <v>36.05</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>1</v>
       </c>
       <c r="K12">
-        <v>0.3012765185546875</v>
+        <v>1E-05</v>
       </c>
       <c r="L12" t="b">
         <v>1</v>
@@ -967,19 +967,19 @@
         <v>30.65</v>
       </c>
       <c r="G13">
-        <v>29.85</v>
+        <v>0</v>
       </c>
       <c r="H13">
         <v>105</v>
       </c>
       <c r="I13">
-        <v>32.05</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>1</v>
       </c>
       <c r="K13">
-        <v>0.2857737438964844</v>
+        <v>1E-05</v>
       </c>
       <c r="L13" t="b">
         <v>1</v>
@@ -1005,19 +1005,19 @@
         <v>26.5</v>
       </c>
       <c r="G14">
-        <v>26.5</v>
+        <v>0</v>
       </c>
       <c r="H14">
         <v>110</v>
       </c>
       <c r="I14">
-        <v>28.85</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>1</v>
       </c>
       <c r="K14">
-        <v>0.2820506365966796</v>
+        <v>1E-05</v>
       </c>
       <c r="L14" t="b">
         <v>1</v>
@@ -1040,22 +1040,22 @@
         <v>115</v>
       </c>
       <c r="F15">
-        <v>21.25</v>
+        <v>23.88</v>
       </c>
       <c r="G15">
-        <v>23.5</v>
+        <v>0</v>
       </c>
       <c r="H15">
         <v>115</v>
       </c>
       <c r="I15">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="K15">
-        <v>0.2807383938598632</v>
+        <v>1E-05</v>
       </c>
       <c r="L15" t="b">
         <v>1</v>
@@ -1081,19 +1081,19 @@
         <v>19.75</v>
       </c>
       <c r="G16">
-        <v>20.75</v>
+        <v>0</v>
       </c>
       <c r="H16">
         <v>120</v>
       </c>
       <c r="I16">
-        <v>22.8</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>1</v>
       </c>
       <c r="K16">
-        <v>0.2709728665161133</v>
+        <v>1E-05</v>
       </c>
       <c r="L16" t="b">
         <v>1</v>
@@ -1116,22 +1116,22 @@
         <v>125</v>
       </c>
       <c r="F17">
-        <v>19.16</v>
+        <v>18.75</v>
       </c>
       <c r="G17">
-        <v>17.7</v>
+        <v>0</v>
       </c>
       <c r="H17">
         <v>125</v>
       </c>
       <c r="I17">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>1</v>
       </c>
       <c r="K17">
-        <v>0.2937082348632812</v>
+        <v>1E-05</v>
       </c>
       <c r="L17" t="b">
         <v>1</v>
@@ -1157,19 +1157,19 @@
         <v>16.85</v>
       </c>
       <c r="G18">
-        <v>15.5</v>
+        <v>0</v>
       </c>
       <c r="H18">
         <v>130</v>
       </c>
       <c r="I18">
-        <v>19.05</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>1</v>
       </c>
       <c r="K18">
-        <v>0.2818064984130859</v>
+        <v>0.0039162109375</v>
       </c>
       <c r="L18" t="b">
         <v>0</v>
@@ -1195,19 +1195,19 @@
         <v>14.35</v>
       </c>
       <c r="G19">
-        <v>14.7</v>
+        <v>0</v>
       </c>
       <c r="H19">
         <v>135</v>
       </c>
       <c r="I19">
-        <v>15.85</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>5</v>
       </c>
       <c r="K19">
-        <v>0.2640454455566406</v>
+        <v>0.007822421875000001</v>
       </c>
       <c r="L19" t="b">
         <v>0</v>
@@ -1233,19 +1233,19 @@
         <v>12.3</v>
       </c>
       <c r="G20">
-        <v>11.65</v>
+        <v>0</v>
       </c>
       <c r="H20">
         <v>140</v>
       </c>
       <c r="I20">
-        <v>14.65</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>2</v>
       </c>
       <c r="K20">
-        <v>0.2720104537963867</v>
+        <v>0.01563484375</v>
       </c>
       <c r="L20" t="b">
         <v>0</v>
@@ -1271,19 +1271,19 @@
         <v>10.7</v>
       </c>
       <c r="G21">
-        <v>11.3</v>
+        <v>0</v>
       </c>
       <c r="H21">
         <v>145</v>
       </c>
       <c r="I21">
-        <v>12.6</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>7</v>
       </c>
       <c r="K21">
-        <v>0.2655102746582031</v>
+        <v>0.01563484375</v>
       </c>
       <c r="L21" t="b">
         <v>0</v>
@@ -1309,19 +1309,19 @@
         <v>9.470000000000001</v>
       </c>
       <c r="G22">
-        <v>9.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="H22">
         <v>150</v>
       </c>
       <c r="I22">
-        <v>11.35</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>10</v>
       </c>
       <c r="K22">
-        <v>0.2680432083129882</v>
+        <v>0.0312596875</v>
       </c>
       <c r="L22" t="b">
         <v>0</v>
@@ -1347,19 +1347,19 @@
         <v>8.1</v>
       </c>
       <c r="G23">
-        <v>8.5</v>
+        <v>0</v>
       </c>
       <c r="H23">
         <v>155</v>
       </c>
       <c r="I23">
-        <v>9.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>1</v>
       </c>
       <c r="K23">
-        <v>0.2640454455566406</v>
+        <v>0.0312596875</v>
       </c>
       <c r="L23" t="b">
         <v>0</v>
@@ -1385,19 +1385,19 @@
         <v>7.5</v>
       </c>
       <c r="G24">
-        <v>6.7</v>
+        <v>0</v>
       </c>
       <c r="H24">
         <v>160</v>
       </c>
       <c r="I24">
-        <v>9.85</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>1</v>
       </c>
       <c r="K24">
-        <v>0.2821421884155273</v>
+        <v>0.0312596875</v>
       </c>
       <c r="L24" t="b">
         <v>0</v>
@@ -1420,22 +1420,22 @@
         <v>165</v>
       </c>
       <c r="F25">
-        <v>5.2</v>
+        <v>6.25</v>
       </c>
       <c r="G25">
-        <v>6.45</v>
+        <v>0</v>
       </c>
       <c r="H25">
         <v>165</v>
       </c>
       <c r="I25">
-        <v>7.7</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="K25">
-        <v>0.2648083773803711</v>
+        <v>0.0312596875</v>
       </c>
       <c r="L25" t="b">
         <v>0</v>
@@ -1461,19 +1461,19 @@
         <v>4.75</v>
       </c>
       <c r="G26">
-        <v>5.25</v>
+        <v>0</v>
       </c>
       <c r="H26">
         <v>170</v>
       </c>
       <c r="I26">
-        <v>6.55</v>
+        <v>0</v>
       </c>
       <c r="J26">
         <v>3</v>
       </c>
       <c r="K26">
-        <v>0.2606275109863281</v>
+        <v>0.0312596875</v>
       </c>
       <c r="L26" t="b">
         <v>0</v>
@@ -1499,19 +1499,19 @@
         <v>4.7</v>
       </c>
       <c r="G27">
-        <v>3.35</v>
+        <v>0</v>
       </c>
       <c r="H27">
         <v>175</v>
       </c>
       <c r="I27">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J27">
         <v>5</v>
       </c>
       <c r="K27">
-        <v>0.2648388946533203</v>
+        <v>0.06250937500000001</v>
       </c>
       <c r="L27" t="b">
         <v>0</v>
@@ -1537,19 +1537,19 @@
         <v>3.63</v>
       </c>
       <c r="G28">
-        <v>3.35</v>
+        <v>0</v>
       </c>
       <c r="H28">
         <v>180</v>
       </c>
       <c r="I28">
-        <v>5.3</v>
+        <v>0</v>
       </c>
       <c r="J28">
         <v>20</v>
       </c>
       <c r="K28">
-        <v>0.2650219982910156</v>
+        <v>0.06250937500000001</v>
       </c>
       <c r="L28" t="b">
         <v>0</v>
@@ -1575,19 +1575,19 @@
         <v>3.5</v>
       </c>
       <c r="G29">
-        <v>3.65</v>
+        <v>0</v>
       </c>
       <c r="H29">
         <v>185</v>
       </c>
       <c r="I29">
-        <v>4.9</v>
+        <v>0</v>
       </c>
       <c r="J29">
         <v>102</v>
       </c>
       <c r="K29">
-        <v>0.2695080374145508</v>
+        <v>0.06250937500000001</v>
       </c>
       <c r="L29" t="b">
         <v>0</v>

--- a/data/option_data/call/ABT.xlsx
+++ b/data/option_data/call/ABT.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="40">
   <si>
     <t>symbol</t>
   </si>
@@ -491,13 +491,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L29"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -517,22 +517,19 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -552,25 +549,22 @@
         <v>68.40000000000001</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>69.90000000000001</v>
       </c>
       <c r="H2">
         <v>55</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <v>1E-05</v>
-      </c>
-      <c r="L2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0.4172421557617187</v>
+      </c>
+      <c r="K2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -590,25 +584,22 @@
         <v>64.65000000000001</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>65.3</v>
       </c>
       <c r="H3">
         <v>60</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J3">
-        <v>10</v>
-      </c>
-      <c r="K3">
-        <v>1E-05</v>
-      </c>
-      <c r="L3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0.3957579956054688</v>
+      </c>
+      <c r="K3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -634,19 +625,16 @@
         <v>65</v>
       </c>
       <c r="I4">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="J4">
-        <v>4</v>
-      </c>
-      <c r="K4">
         <v>1E-05</v>
       </c>
-      <c r="L4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="K4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -672,19 +660,16 @@
         <v>70</v>
       </c>
       <c r="I5">
-        <v>45.9</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
         <v>1E-05</v>
       </c>
-      <c r="L5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="K5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -704,25 +689,22 @@
         <v>53.87</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>52.05</v>
       </c>
       <c r="H6">
         <v>75</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J6">
-        <v>5</v>
-      </c>
-      <c r="K6">
-        <v>1E-05</v>
-      </c>
-      <c r="L6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0.3024972094726562</v>
+      </c>
+      <c r="K6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -742,25 +724,22 @@
         <v>49.47</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>47.7</v>
       </c>
       <c r="H7">
         <v>80</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J7">
-        <v>5</v>
-      </c>
-      <c r="K7">
-        <v>1E-05</v>
-      </c>
-      <c r="L7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0.319769985961914</v>
+      </c>
+      <c r="K7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -785,17 +764,14 @@
       <c r="H8">
         <v>85</v>
       </c>
-      <c r="I8">
-        <v>45.5</v>
-      </c>
-      <c r="K8">
-        <v>0.2848582257080078</v>
-      </c>
-      <c r="L8" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="J8">
+        <v>0.3181220532226562</v>
+      </c>
+      <c r="K8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -812,28 +788,25 @@
         <v>90</v>
       </c>
       <c r="F9">
-        <v>40</v>
+        <v>39.31</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>39.6</v>
       </c>
       <c r="H9">
         <v>90</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9">
-        <v>1</v>
-      </c>
-      <c r="K9">
-        <v>1E-05</v>
-      </c>
-      <c r="L9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0.2791820129394531</v>
+      </c>
+      <c r="K9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -853,25 +826,22 @@
         <v>37.7</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>35.15</v>
       </c>
       <c r="H10">
         <v>95</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J10">
-        <v>4</v>
-      </c>
-      <c r="K10">
-        <v>1E-05</v>
-      </c>
-      <c r="L10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0.3003610003662109</v>
+      </c>
+      <c r="K10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -897,19 +867,16 @@
         <v>97.5</v>
       </c>
       <c r="I11">
-        <v>33.95</v>
+        <v>1</v>
       </c>
       <c r="J11">
-        <v>1</v>
-      </c>
-      <c r="K11">
-        <v>0.2348709326171875</v>
-      </c>
-      <c r="L11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0.2594678546142578</v>
+      </c>
+      <c r="K11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -926,28 +893,25 @@
         <v>100</v>
       </c>
       <c r="F12">
-        <v>32.77</v>
+        <v>32.5</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>31.55</v>
       </c>
       <c r="H12">
         <v>100</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12">
-        <v>1</v>
-      </c>
-      <c r="K12">
-        <v>1E-05</v>
-      </c>
-      <c r="L12" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0.289496851196289</v>
+      </c>
+      <c r="K12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -967,25 +931,22 @@
         <v>30.65</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>28.8</v>
       </c>
       <c r="H13">
         <v>105</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13">
-        <v>1</v>
-      </c>
-      <c r="K13">
-        <v>1E-05</v>
-      </c>
-      <c r="L13" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0.2825999475097656</v>
+      </c>
+      <c r="K13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1005,25 +966,22 @@
         <v>26.5</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>25.65</v>
       </c>
       <c r="H14">
         <v>110</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14">
-        <v>1</v>
-      </c>
-      <c r="K14">
-        <v>1E-05</v>
-      </c>
-      <c r="L14" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0.277778218383789</v>
+      </c>
+      <c r="K14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1043,25 +1001,22 @@
         <v>23.88</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>22.95</v>
       </c>
       <c r="H15">
         <v>115</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J15">
-        <v>6</v>
-      </c>
-      <c r="K15">
-        <v>1E-05</v>
-      </c>
-      <c r="L15" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0.264381135559082</v>
+      </c>
+      <c r="K15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1081,25 +1036,22 @@
         <v>19.75</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>20.35</v>
       </c>
       <c r="H16">
         <v>120</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16">
-        <v>1</v>
-      </c>
-      <c r="K16">
-        <v>1E-05</v>
-      </c>
-      <c r="L16" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0.2743297665405273</v>
+      </c>
+      <c r="K16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1119,25 +1071,22 @@
         <v>18.75</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>17.45</v>
       </c>
       <c r="H17">
         <v>125</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17">
-        <v>1</v>
-      </c>
-      <c r="K17">
-        <v>1E-05</v>
-      </c>
-      <c r="L17" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0.2716289878845214</v>
+      </c>
+      <c r="K17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1157,25 +1106,22 @@
         <v>16.85</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>14.85</v>
       </c>
       <c r="H18">
         <v>130</v>
       </c>
       <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>0.2602613037109375</v>
+      </c>
+      <c r="K18" t="b">
         <v>0</v>
       </c>
-      <c r="J18">
-        <v>1</v>
-      </c>
-      <c r="K18">
-        <v>0.0039162109375</v>
-      </c>
-      <c r="L18" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1195,25 +1141,22 @@
         <v>14.35</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>12.95</v>
       </c>
       <c r="H19">
         <v>135</v>
       </c>
       <c r="I19">
+        <v>5</v>
+      </c>
+      <c r="J19">
+        <v>0.273444765625</v>
+      </c>
+      <c r="K19" t="b">
         <v>0</v>
       </c>
-      <c r="J19">
-        <v>5</v>
-      </c>
-      <c r="K19">
-        <v>0.007822421875000001</v>
-      </c>
-      <c r="L19" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1233,25 +1176,22 @@
         <v>12.3</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>11.75</v>
       </c>
       <c r="H20">
         <v>140</v>
       </c>
       <c r="I20">
+        <v>2</v>
+      </c>
+      <c r="J20">
+        <v>0.2703320037841797</v>
+      </c>
+      <c r="K20" t="b">
         <v>0</v>
       </c>
-      <c r="J20">
-        <v>2</v>
-      </c>
-      <c r="K20">
-        <v>0.01563484375</v>
-      </c>
-      <c r="L20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1271,25 +1211,22 @@
         <v>10.7</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="H21">
         <v>145</v>
       </c>
       <c r="I21">
+        <v>7</v>
+      </c>
+      <c r="J21">
+        <v>0.2551038845825196</v>
+      </c>
+      <c r="K21" t="b">
         <v>0</v>
       </c>
-      <c r="J21">
-        <v>7</v>
-      </c>
-      <c r="K21">
-        <v>0.01563484375</v>
-      </c>
-      <c r="L21" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1309,25 +1246,22 @@
         <v>9.470000000000001</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>9.15</v>
       </c>
       <c r="H22">
         <v>150</v>
       </c>
       <c r="I22">
+        <v>10</v>
+      </c>
+      <c r="J22">
+        <v>0.2548292291259766</v>
+      </c>
+      <c r="K22" t="b">
         <v>0</v>
       </c>
-      <c r="J22">
-        <v>10</v>
-      </c>
-      <c r="K22">
-        <v>0.0312596875</v>
-      </c>
-      <c r="L22" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1347,25 +1281,22 @@
         <v>8.1</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>7.9</v>
       </c>
       <c r="H23">
         <v>155</v>
       </c>
       <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>0.2537611245727539</v>
+      </c>
+      <c r="K23" t="b">
         <v>0</v>
       </c>
-      <c r="J23">
-        <v>1</v>
-      </c>
-      <c r="K23">
-        <v>0.0312596875</v>
-      </c>
-      <c r="L23" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1385,25 +1316,22 @@
         <v>7.5</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>6.9</v>
       </c>
       <c r="H24">
         <v>160</v>
       </c>
       <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>0.2665478619384766</v>
+      </c>
+      <c r="K24" t="b">
         <v>0</v>
       </c>
-      <c r="J24">
-        <v>1</v>
-      </c>
-      <c r="K24">
-        <v>0.0312596875</v>
-      </c>
-      <c r="L24" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1423,25 +1351,22 @@
         <v>6.25</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>5.95</v>
       </c>
       <c r="H25">
         <v>165</v>
       </c>
       <c r="I25">
+        <v>6</v>
+      </c>
+      <c r="J25">
+        <v>0.2539747454833985</v>
+      </c>
+      <c r="K25" t="b">
         <v>0</v>
       </c>
-      <c r="J25">
-        <v>6</v>
-      </c>
-      <c r="K25">
-        <v>0.0312596875</v>
-      </c>
-      <c r="L25" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1461,25 +1386,22 @@
         <v>4.75</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>5.2</v>
       </c>
       <c r="H26">
         <v>170</v>
       </c>
       <c r="I26">
+        <v>3</v>
+      </c>
+      <c r="J26">
+        <v>0.2541578491210938</v>
+      </c>
+      <c r="K26" t="b">
         <v>0</v>
       </c>
-      <c r="J26">
-        <v>3</v>
-      </c>
-      <c r="K26">
-        <v>0.0312596875</v>
-      </c>
-      <c r="L26" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1499,25 +1421,22 @@
         <v>4.7</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="H27">
         <v>175</v>
       </c>
       <c r="I27">
+        <v>5</v>
+      </c>
+      <c r="J27">
+        <v>0.2544019873046875</v>
+      </c>
+      <c r="K27" t="b">
         <v>0</v>
       </c>
-      <c r="J27">
-        <v>5</v>
-      </c>
-      <c r="K27">
-        <v>0.06250937500000001</v>
-      </c>
-      <c r="L27" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1537,25 +1456,22 @@
         <v>3.63</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="H28">
         <v>180</v>
       </c>
       <c r="I28">
+        <v>20</v>
+      </c>
+      <c r="J28">
+        <v>0.2735973519897461</v>
+      </c>
+      <c r="K28" t="b">
         <v>0</v>
       </c>
-      <c r="J28">
-        <v>20</v>
-      </c>
-      <c r="K28">
-        <v>0.06250937500000001</v>
-      </c>
-      <c r="L28" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1575,21 +1491,18 @@
         <v>3.5</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="H29">
         <v>185</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="J29">
-        <v>102</v>
-      </c>
-      <c r="K29">
-        <v>0.06250937500000001</v>
-      </c>
-      <c r="L29" t="b">
+        <v>0.279731323852539</v>
+      </c>
+      <c r="K29" t="b">
         <v>0</v>
       </c>
     </row>
